--- a/models/calculation engines/AL quarterly chart pack/Outputs/Refineries and Aa productions.xlsx
+++ b/models/calculation engines/AL quarterly chart pack/Outputs/Refineries and Aa productions.xlsx
@@ -788,7 +788,7 @@
         <v>945</v>
       </c>
       <c r="G5" t="n">
-        <v>899.55</v>
+        <v>899.5499999999998</v>
       </c>
       <c r="H5" t="n">
         <v>966</v>
@@ -797,13 +797,13 @@
         <v>3734.3</v>
       </c>
       <c r="J5" t="n">
-        <v>896.1079999999999</v>
+        <v>896.1079999999998</v>
       </c>
       <c r="K5" t="n">
         <v>939.535</v>
       </c>
       <c r="L5" t="n">
-        <v>934.5669999999999</v>
+        <v>934.567</v>
       </c>
       <c r="M5" t="n">
         <v>927</v>
@@ -867,7 +867,7 @@
         <v>656.2145331564991</v>
       </c>
       <c r="H6" t="n">
-        <v>671.597733156498</v>
+        <v>671.5977331564981</v>
       </c>
       <c r="I6" t="n">
         <v>2576.232984799907</v>
@@ -894,7 +894,7 @@
         <v>731.4400000000001</v>
       </c>
       <c r="Q6" t="n">
-        <v>734.4000000000001</v>
+        <v>734.4000000000002</v>
       </c>
       <c r="R6" t="n">
         <v>720.3600000000001</v>
@@ -937,7 +937,7 @@
         <v>1120.93023255814</v>
       </c>
       <c r="F7" t="n">
-        <v>1148.837209302326</v>
+        <v>1148.837209302325</v>
       </c>
       <c r="G7" t="n">
         <v>1095.3488372093</v>
@@ -946,7 +946,7 @@
         <v>1073.255813953488</v>
       </c>
       <c r="I7" t="n">
-        <v>4438.372093023254</v>
+        <v>4438.372093023253</v>
       </c>
       <c r="J7" t="n">
         <v>1067.441860465116</v>
@@ -955,13 +955,13 @@
         <v>1140.697674418605</v>
       </c>
       <c r="L7" t="n">
-        <v>993.0232558139535</v>
+        <v>993.0232558139536</v>
       </c>
       <c r="M7" t="n">
-        <v>1223.255813953488</v>
+        <v>1223.255813953489</v>
       </c>
       <c r="N7" t="n">
-        <v>4424.418604651163</v>
+        <v>4424.418604651164</v>
       </c>
       <c r="O7" t="n">
         <v>1038.372093023256</v>
@@ -1502,22 +1502,22 @@
         <v>930</v>
       </c>
       <c r="G16" t="n">
-        <v>937.449999999999</v>
+        <v>937.4499999999989</v>
       </c>
       <c r="H16" t="n">
-        <v>933.8700000000019</v>
+        <v>933.8700000000018</v>
       </c>
       <c r="I16" t="n">
         <v>3691.320000000001</v>
       </c>
       <c r="J16" t="n">
-        <v>871.2200000000009</v>
+        <v>871.2200000000011</v>
       </c>
       <c r="K16" t="n">
         <v>869.1499999999969</v>
       </c>
       <c r="L16" t="n">
-        <v>851.3700000000019</v>
+        <v>851.3700000000018</v>
       </c>
       <c r="M16" t="n">
         <v>919.4444444444445</v>
@@ -1584,13 +1584,13 @@
         <v>200</v>
       </c>
       <c r="I17" t="n">
-        <v>793.4782608695652</v>
+        <v>793.4782608695651</v>
       </c>
       <c r="J17" t="n">
         <v>200</v>
       </c>
       <c r="K17" t="n">
-        <v>202.2222222222222</v>
+        <v>202.2222222222223</v>
       </c>
       <c r="L17" t="n">
         <v>204.4444444444445</v>
@@ -1654,7 +1654,7 @@
         <v>367</v>
       </c>
       <c r="G18" t="n">
-        <v>351.107</v>
+        <v>351.1070000000001</v>
       </c>
       <c r="H18" t="n">
         <v>365.214</v>
@@ -1794,7 +1794,7 @@
         <v>155</v>
       </c>
       <c r="K20" t="n">
-        <v>156.7222222222222</v>
+        <v>156.7222222222223</v>
       </c>
       <c r="L20" t="n">
         <v>158.4444444444445</v>
@@ -1809,7 +1809,7 @@
         <v>155</v>
       </c>
       <c r="P20" t="n">
-        <v>156.7222222222222</v>
+        <v>156.7222222222223</v>
       </c>
       <c r="Q20" t="n">
         <v>155</v>
@@ -1818,7 +1818,7 @@
         <v>150</v>
       </c>
       <c r="S20" t="n">
-        <v>616.7222222222222</v>
+        <v>616.7222222222223</v>
       </c>
       <c r="T20" t="n">
         <v>150</v>
@@ -1852,10 +1852,10 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>243.5869565217391</v>
+        <v>243.5869565217392</v>
       </c>
       <c r="F21" t="n">
-        <v>246.2934782608695</v>
+        <v>246.2934782608696</v>
       </c>
       <c r="G21" t="n">
         <v>249</v>
@@ -1864,7 +1864,7 @@
         <v>249</v>
       </c>
       <c r="I21" t="n">
-        <v>987.8804347826086</v>
+        <v>987.8804347826087</v>
       </c>
       <c r="J21" t="n">
         <v>249</v>
@@ -1940,13 +1940,13 @@
         <v>200</v>
       </c>
       <c r="I22" t="n">
-        <v>793.4782608695652</v>
+        <v>793.4782608695651</v>
       </c>
       <c r="J22" t="n">
         <v>200</v>
       </c>
       <c r="K22" t="n">
-        <v>202.2222222222222</v>
+        <v>202.2222222222223</v>
       </c>
       <c r="L22" t="n">
         <v>204.4444444444445</v>
@@ -1961,7 +1961,7 @@
         <v>200</v>
       </c>
       <c r="P22" t="n">
-        <v>202.2222222222222</v>
+        <v>202.2222222222223</v>
       </c>
       <c r="Q22" t="n">
         <v>200</v>
@@ -1970,7 +1970,7 @@
         <v>200</v>
       </c>
       <c r="S22" t="n">
-        <v>802.2222222222222</v>
+        <v>802.2222222222223</v>
       </c>
       <c r="T22" t="n">
         <v>200</v>
@@ -2127,7 +2127,7 @@
         <v>24.45652173913043</v>
       </c>
       <c r="F25" t="n">
-        <v>24.72826086956522</v>
+        <v>24.72826086956521</v>
       </c>
       <c r="G25" t="n">
         <v>25</v>
@@ -2136,13 +2136,13 @@
         <v>25</v>
       </c>
       <c r="I25" t="n">
-        <v>99.18478260869566</v>
+        <v>99.18478260869564</v>
       </c>
       <c r="J25" t="n">
         <v>25</v>
       </c>
       <c r="K25" t="n">
-        <v>25.27777777777778</v>
+        <v>25.27777777777777</v>
       </c>
       <c r="L25" t="n">
         <v>25.55555555555556</v>
@@ -2157,7 +2157,7 @@
         <v>25</v>
       </c>
       <c r="P25" t="n">
-        <v>25.27777777777778</v>
+        <v>25.27777777777777</v>
       </c>
       <c r="Q25" t="n">
         <v>25</v>
@@ -2317,7 +2317,7 @@
         <v>77.60217983651226</v>
       </c>
       <c r="H28" t="n">
-        <v>80.27265917602996</v>
+        <v>80.27265917602995</v>
       </c>
       <c r="I28" t="n">
         <v>315.9129861515068</v>
@@ -2882,13 +2882,13 @@
         <v>200</v>
       </c>
       <c r="I36" t="n">
-        <v>793.4782608695652</v>
+        <v>793.4782608695651</v>
       </c>
       <c r="J36" t="n">
         <v>200</v>
       </c>
       <c r="K36" t="n">
-        <v>202.2222222222222</v>
+        <v>202.2222222222223</v>
       </c>
       <c r="L36" t="n">
         <v>204.4444444444445</v>
@@ -3016,13 +3016,13 @@
         <v>38</v>
       </c>
       <c r="K38" t="n">
-        <v>38.42222222222222</v>
+        <v>38.42222222222223</v>
       </c>
       <c r="L38" t="n">
-        <v>38.84444444444444</v>
+        <v>38.84444444444443</v>
       </c>
       <c r="M38" t="n">
-        <v>38.84444444444444</v>
+        <v>38.84444444444443</v>
       </c>
       <c r="N38" t="n">
         <v>154.1111111111111</v>
@@ -3031,13 +3031,13 @@
         <v>38</v>
       </c>
       <c r="P38" t="n">
-        <v>38.42222222222222</v>
+        <v>38.42222222222223</v>
       </c>
       <c r="Q38" t="n">
-        <v>38.84444444444444</v>
+        <v>38.84444444444443</v>
       </c>
       <c r="R38" t="n">
-        <v>38.84444444444444</v>
+        <v>38.84444444444443</v>
       </c>
       <c r="S38" t="n">
         <v>154.1111111111111</v>
@@ -3298,7 +3298,7 @@
         <v>141</v>
       </c>
       <c r="K42" t="n">
-        <v>202.2222222222222</v>
+        <v>202.2222222222223</v>
       </c>
       <c r="L42" t="n">
         <v>204</v>
@@ -3307,7 +3307,7 @@
         <v>205</v>
       </c>
       <c r="N42" t="n">
-        <v>752.2222222222222</v>
+        <v>752.2222222222223</v>
       </c>
       <c r="O42" t="n">
         <v>232</v>
@@ -3784,7 +3784,7 @@
         <v>103.6249999999999</v>
       </c>
       <c r="S49" t="n">
-        <v>460.911</v>
+        <v>460.9109999999999</v>
       </c>
       <c r="T49" t="n">
         <v>100</v>
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>244.5652173913043</v>
+        <v>244.5652173913044</v>
       </c>
       <c r="F62" t="n">
         <v>247.2826086956522</v>
@@ -4905,7 +4905,7 @@
         <v>157.7168478260869</v>
       </c>
       <c r="F66" t="n">
-        <v>159.4692572463768</v>
+        <v>159.4692572463767</v>
       </c>
       <c r="G66" t="n">
         <v>160</v>
@@ -4923,10 +4923,10 @@
         <v>162.0547945205479</v>
       </c>
       <c r="L66" t="n">
-        <v>163.8356164383562</v>
+        <v>163.8356164383561</v>
       </c>
       <c r="M66" t="n">
-        <v>163.8356164383562</v>
+        <v>163.8356164383561</v>
       </c>
       <c r="N66" t="n">
         <v>650</v>
